--- a/src/main/java/com/backend/file/error-file-voucher.xlsx
+++ b/src/main/java/com/backend/file/error-file-voucher.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
   <si>
     <t>STT</t>
   </si>
@@ -368,6 +368,9 @@
   </si>
   <si>
     <t>Quanghui</t>
+  </si>
+  <si>
+    <t>Thành Test nè</t>
   </si>
 </sst>
 </file>
@@ -375,7 +378,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -402,6 +405,44 @@
       <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
     </font>
     <font>
       <name val="Times New Roman"/>
@@ -674,7 +715,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -711,6 +752,22 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="0" applyBorder="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="24" xfId="0" applyBorder="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="24" xfId="0" applyBorder="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1073,7 +1130,7 @@
       <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s" s="14">
+      <c r="I1" t="s" s="22">
         <v>10</v>
       </c>
       <c r="J1" s="3" t="s">
@@ -1082,19 +1139,19 @@
       <c r="K1" s="4"/>
     </row>
     <row r="2">
-      <c r="A2" t="n" s="16">
+      <c r="A2" t="n" s="24">
         <v>1.0</v>
       </c>
       <c r="B2" t="s">
         <v>17</v>
       </c>
-      <c r="C2" t="s" s="16">
-        <v>18</v>
-      </c>
-      <c r="F2" t="n" s="16">
+      <c r="C2" t="s" s="24">
+        <v>19</v>
+      </c>
+      <c r="F2" t="n" s="24">
         <v>0.0</v>
       </c>
-      <c r="K2" t="s" s="15">
+      <c r="K2" t="s" s="23">
         <v>16</v>
       </c>
     </row>

--- a/src/main/java/com/backend/file/error-file-voucher.xlsx
+++ b/src/main/java/com/backend/file/error-file-voucher.xlsx
@@ -5,15 +5,16 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\DATN\DATN_BE_2003Shoes\src\main\resources\static\fileMau\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\DATN\DATN_BE_2003Shoes\src\main\java\com\backend\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{319BD3DE-47D3-45C3-B512-C742FEB5959C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B472145-14E7-4E98-836D-D953D3614373}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{E5B39717-D5A6-446F-B264-D4DBCAC40ED0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="ReduceSheet" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="22">
   <si>
     <t>STT</t>
   </si>
@@ -157,31 +158,6 @@
   </si>
   <si>
     <r>
-      <t>Giá trị tối thiểu của hóa đơn (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>Giá trị giảm (</t>
     </r>
     <r>
@@ -287,6 +263,61 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
+      <t xml:space="preserve">) 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(Ngày bắt đầu phải lớn hơn ngày hiện tại)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Định dạng MM/dd/yyyy</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Ngày kết thúc (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
       <t xml:space="preserve">)
 </t>
     </r>
@@ -297,12 +328,13 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>(Ngày bắt đầu phải lớn hơn ngày hiện tại)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Ngày kết thúc (</t>
+      <t>(Ngày kết thúc phải lớn hơn ngày bắt đầu)
+Định dạng MM/dd/yyyy</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Giá trị tối thiểu của hóa đơn (</t>
     </r>
     <r>
       <rPr>
@@ -322,63 +354,103 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve">)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>(Ngày kết thúc phải lớn hơn ngày bắt đầu)</t>
+      <t>)</t>
     </r>
   </si>
   <si>
     <t>Chi tiết lỗi</t>
   </si>
   <si>
-    <t xml:space="preserve">Mã voucher đã tồn tại. 
+    <t xml:space="preserve">Tên voucher không được để trống. 
 Số lượng không được để trống. 
 Giá trị tối thiểu của hóa đơn không được để trống. 
+Giá trị giảm không được để trống. 
+Hình thức giảm không được để trống. 
+Ngày bắt đầu không được để trống. 
+Ngày kết thúc không được để trống. 
 </t>
   </si>
   <si>
-    <t>VThanhTest</t>
-  </si>
-  <si>
-    <t>Thành HiHi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mã voucher không được để trống. 
+    <t>Hi</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tên voucher không được để trống. 
 Số lượng không được để trống. 
 Giá trị tối thiểu của hóa đơn không được để trống. 
+Giá trị giảm không được để trống. 
+Giá trị giảm tối đa không được để trống. 
+Ngày bắt đầu không được để trống. 
+Ngày kết thúc không được để trống. 
 </t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t xml:space="preserve">Mã voucher đã tồn tại. 
+    <t xml:space="preserve">Tên voucher không được để trống. 
+Số lượng phải lớn hơn 0 
+Giá trị tối thiểu của hóa đơn không được để trống. 
+Giá trị giảm không được để trống. 
+Giá trị giảm tối đa không được để trống. 
+Ngày bắt đầu không được để trống. 
+Ngày kết thúc không được để trống. 
 </t>
   </si>
   <si>
-    <t>Quang1</t>
-  </si>
-  <si>
-    <t>Quanghui</t>
-  </si>
-  <si>
-    <t>Thành Test nè</t>
+    <t xml:space="preserve">Tên voucher không được để trống. 
+Số lượng phải lớn hơn 0 
+Giá trị tối thiểu của hóa đơn phải lớn hơn 0 
+Giá trị giảm không được để trống. 
+Giá trị giảm tối đa không được để trống. 
+Ngày bắt đầu không được để trống. 
+Ngày kết thúc không được để trống. 
+</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tên voucher không được để trống. 
+Số lượng phải lớn hơn 0 
+Giá trị tối thiểu của hóa đơn phải lớn hơn 0 
+Giá trị giảm phải lớn hơn 0 
+Giá trị giảm tối đa không được để trống. 
+Ngày bắt đầu không được để trống. 
+Ngày kết thúc không được để trống. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tên voucher không được để trống. 
+Số lượng không được để trống. 
+Giá trị tối thiểu của hóa đơn phải lớn hơn 0 
+Giá trị giảm phải lớn hơn 0 
+Hình thức giảm không được để trống. 
+Ngày bắt đầu không được để trống. 
+Ngày kết thúc không được để trống. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tên voucher không được để trống. 
+Số lượng không được để trống. 
+Giá trị tối thiểu của hóa đơn phải lớn hơn 0 
+Giá trị giảm phải lớn hơn 0 
+Hình thức giảm không được để trống. 
+Ngày bắt đầu phải lớn hơn ngày hiện tại. 
+Ngày kết thúc phải lớn hơn ngày bắt đầu. 
+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="24" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="MM/dd/yyyy"/>
+  </numFmts>
+  <fonts count="82" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -429,69 +501,361 @@
       <name val="Times New Roman"/>
       <sz val="12.0"/>
       <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
     </font>
     <font>
       <name val="Times New Roman"/>
@@ -715,7 +1079,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -727,7 +1091,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -768,6 +1131,121 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="24" xfId="0" applyBorder="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="24" xfId="0" applyBorder="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="24" xfId="0" applyBorder="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="9" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="24" xfId="0" applyBorder="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="9" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="24" xfId="0" applyBorder="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="9" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="24" xfId="0" applyBorder="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="9" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="24" xfId="0" applyBorder="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="9" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="24" xfId="0" applyBorder="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="9" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="24" xfId="0" applyBorder="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="9" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="24" xfId="0" applyBorder="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="9" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="24" xfId="0" applyBorder="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="9" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="24" xfId="0" applyBorder="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="9" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="24" xfId="0" applyBorder="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="9" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="24" xfId="0" applyBorder="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="9" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="164" fontId="79" fillId="0" borderId="9" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="24" xfId="0" applyBorder="true" applyFont="true"/>
+    <xf numFmtId="164" fontId="81" fillId="0" borderId="24" xfId="0" applyNumberFormat="true" applyBorder="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1085,8 +1563,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1099,9 +1577,9 @@
     <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="15.62109375" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="30.8984375" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="39.5" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="11.91015625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="40.25390625" collapsed="true"/>
     <col min="10" max="10" bestFit="true" customWidth="true" style="1" width="40.86328125" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" style="1" width="24.9765625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="1" width="46.2421875" collapsed="true"/>
     <col min="12" max="16384" style="1" width="8.7265625" collapsed="true"/>
   </cols>
   <sheetData>
@@ -1118,41 +1596,90 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s" s="22">
+      <c r="J1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s" s="78">
         <v>10</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="4"/>
     </row>
     <row r="2">
-      <c r="A2" t="n" s="24">
+      <c r="A2" t="n" s="80">
         <v>1.0</v>
       </c>
-      <c r="B2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" t="s" s="24">
-        <v>19</v>
-      </c>
-      <c r="F2" t="n" s="24">
+      <c r="B2" t="s" s="80">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s" s="82">
+        <v>13</v>
+      </c>
+      <c r="D2" s="82"/>
+      <c r="E2" t="n" s="82">
         <v>0.0</v>
       </c>
-      <c r="K2" t="s" s="23">
-        <v>16</v>
+      <c r="F2" t="n" s="82">
+        <v>0.0</v>
+      </c>
+      <c r="G2" s="82"/>
+      <c r="H2" s="80"/>
+      <c r="I2" t="n" s="83">
+        <v>45202.0</v>
+      </c>
+      <c r="J2" t="n" s="83">
+        <v>45171.0</v>
+      </c>
+      <c r="K2" t="s" s="79">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Lỗi dữ liệu" error="Chọn một giá trị từ danh sách hình thức giảm." xr:uid="{00000000-0002-0000-0000-000000000000}">
+          <x14:formula1>
+            <xm:f>ReduceSheet!$A$1:$A$2</xm:f>
+          </x14:formula1>
+          <xm:sqref>G2:G1001</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
